--- a/DataFiles_Excel/Maps/AwardsByLocation/US/USA_Discretionary/USA_Discretionary_NIH.xlsx
+++ b/DataFiles_Excel/Maps/AwardsByLocation/US/USA_Discretionary/USA_Discretionary_NIH.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jim.ide\Desktop\annual-report-html2excel\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Engineering Projects\Annual Report\2016-html2excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -214,7 +214,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +357,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -539,7 +558,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -654,6 +673,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -699,29 +733,32 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="6" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1078,6 +1115,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1086,20 +1124,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="94.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6"/>
@@ -1113,7 +1151,7 @@
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
@@ -1124,12 +1162,12 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1140,7 +1178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1151,7 +1189,7 @@
         <v>270841064</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1162,7 +1200,7 @@
         <v>14594777</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1173,7 +1211,7 @@
         <v>333777</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1184,7 +1222,7 @@
         <v>161942470</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1195,7 +1233,7 @@
         <v>96180275</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1206,7 +1244,7 @@
         <v>3635411028</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,7 +1255,7 @@
         <v>342373752</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1228,7 +1266,7 @@
         <v>507613409</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1239,7 +1277,7 @@
         <v>42526287</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1250,7 +1288,7 @@
         <v>111606532</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1261,7 +1299,7 @@
         <v>492414678</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1272,7 +1310,7 @@
         <v>500999900</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1283,7 +1321,7 @@
         <v>1327275</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1294,7 +1332,7 @@
         <v>52541054</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -1305,7 +1343,7 @@
         <v>14336014</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1316,7 +1354,7 @@
         <v>792289031</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1327,7 +1365,7 @@
         <v>224503436</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1338,7 +1376,7 @@
         <v>161231663</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -1349,7 +1387,7 @@
         <v>90298397</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -1360,7 +1398,7 @@
         <v>160820125</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -1371,7 +1409,7 @@
         <v>131117690</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -1382,7 +1420,7 @@
         <v>74720846</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -1393,7 +1431,7 @@
         <v>977627998</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -1404,7 +1442,7 @@
         <v>2526046916</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -1415,7 +1453,7 @@
         <v>652548341</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -1426,7 +1464,7 @@
         <v>507513465</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -1437,7 +1475,7 @@
         <v>44470931</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -1448,7 +1486,7 @@
         <v>482228218</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -1459,7 +1497,7 @@
         <v>37618158</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -1470,7 +1508,7 @@
         <v>107295925</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -1481,7 +1519,7 @@
         <v>31695282</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -1492,7 +1530,7 @@
         <v>97901880</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
@@ -1503,7 +1541,7 @@
         <v>222270076</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -1514,7 +1552,7 @@
         <v>97079755</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -1525,7 +1563,7 @@
         <v>2158461608</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
@@ -1536,7 +1574,7 @@
         <v>1064515934</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -1547,7 +1585,7 @@
         <v>23065396</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -1558,7 +1596,7 @@
         <v>694553330</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
@@ -1569,7 +1607,7 @@
         <v>90066432</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
@@ -1580,7 +1618,7 @@
         <v>272118438</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
@@ -1591,7 +1629,7 @@
         <v>1537543236</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
@@ -1602,7 +1640,7 @@
         <v>45651127</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
@@ -1613,7 +1651,7 @@
         <v>148652687</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
@@ -1624,7 +1662,7 @@
         <v>172893438</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
@@ -1635,7 +1673,7 @@
         <v>21341838</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
@@ -1646,7 +1684,7 @@
         <v>485600109</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
@@ -1657,7 +1695,7 @@
         <v>1047306400</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -1668,7 +1706,7 @@
         <v>170484136</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -1679,7 +1717,7 @@
         <v>48571790</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -1690,7 +1728,7 @@
         <v>1383174</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
@@ -1701,7 +1739,7 @@
         <v>401349695</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
@@ -1712,7 +1750,7 @@
         <v>859516540</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
@@ -1723,7 +1761,7 @@
         <v>23735442</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
@@ -1734,7 +1772,7 @@
         <v>419467494</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
